--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Cambodge/Pandémie_de_Covid-19_au_Cambodge.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Cambodge/Pandémie_de_Covid-19_au_Cambodge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Cambodge</t>
+          <t>Pandémie_de_Covid-19_au_Cambodge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Cambodge démarre officiellement le 27 janvier 2020.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Cambodge</t>
+          <t>Pandémie_de_Covid-19_au_Cambodge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 27 janvier, le Cambodge a confirmé le premier cas de Covid-19 à Sihanoukville, un Chinois de 60 ans, Jia Jianhua, se rendant dans la ville côtière de Wuhan avec sa famille le 23 janvier[2]. Trois autres membres de sa famille ont été placés en quarantaine car ils ne semblaient pas présenter de symptômes, tandis qu'il a été placé dans une pièce séparée à l'hôpital de référence de Preah Sihanouk[3],[4],[5]. Le 10 février, après avoir été traité et gardé sous observation pendant deux semaines, il s'était complètement rétabli, a déclaré le ministère de la Santé en raison d'un test négatif pour la troisième fois par l'Institut Pasteur du Cambodge. La famille a finalement été renvoyée et a regagné son pays d'origine le lendemain, parmi les 80 ressortissants chinois arrivés à Sihanoukville sur le même vol que Jia, la plupart sont depuis rentrés en Chine, bien que la ville de Wuhan reste en quarantaine[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 27 janvier, le Cambodge a confirmé le premier cas de Covid-19 à Sihanoukville, un Chinois de 60 ans, Jia Jianhua, se rendant dans la ville côtière de Wuhan avec sa famille le 23 janvier. Trois autres membres de sa famille ont été placés en quarantaine car ils ne semblaient pas présenter de symptômes, tandis qu'il a été placé dans une pièce séparée à l'hôpital de référence de Preah Sihanouk. Le 10 février, après avoir été traité et gardé sous observation pendant deux semaines, il s'était complètement rétabli, a déclaré le ministère de la Santé en raison d'un test négatif pour la troisième fois par l'Institut Pasteur du Cambodge. La famille a finalement été renvoyée et a regagné son pays d'origine le lendemain, parmi les 80 ressortissants chinois arrivés à Sihanoukville sur le même vol que Jia, la plupart sont depuis rentrés en Chine, bien que la ville de Wuhan reste en quarantaine,.
 Le long de l'année, plusieurs cas ont été décelés sur différents groupes, tout en restant apparemment sous contrôle, les personnes testée positives étant mises en quarantaine et des mesures strictes étant prises.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Cambodge</t>
+          <t>Pandémie_de_Covid-19_au_Cambodge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus s'est répandu lors d'un évènement que les journaux appellent l'évènement du 20 février. Un groupe a été testé positif et devait resté isolé à l'hôtel Sokha, mais la plupart des individus ont fait le mur et ont largement répandu le virus dans différents endroits. Le premier mort du Covid 19 au Cambodge se produit le 23 février. 
 La situation s'aggrave rapidement et un couvre-feu est décrété pour le 1er avril.
-Le 15 avril, la ville de Phnom Penh est bouclée d'abord pour une durée de deux semaines, certains quartiers sont interdits d'entrée-sortie, sauf avec certaines dérogations notamment les livreurs; de fait cette situation se poursuit jusqu'au 5 mars 2021[8].
+Le 15 avril, la ville de Phnom Penh est bouclée d'abord pour une durée de deux semaines, certains quartiers sont interdits d'entrée-sortie, sauf avec certaines dérogations notamment les livreurs; de fait cette situation se poursuit jusqu'au 5 mars 2021.
 Les grandes villes sont alors divisées en 3 zones.
 Rouge : cas d'infection importants, les personnes restent confinées, seuls quelques transports strictement nécessaires, sont autorisés.
 Orange : cas d'infection moyen, les conditions sont moins sévères, les personnes peuvent aller travailler et la plupart des activités sont possibles.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Cambodge</t>
+          <t>Pandémie_de_Covid-19_au_Cambodge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 9 janvier 2022 150 cas de omicron sont connus ; le 27 février 2022, le chiffre est monté à 9 000 cas, le 24 mars 2022 à 14 800 cas mais la courbe semble fléchir.
 </t>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Cambodge</t>
+          <t>Pandémie_de_Covid-19_au_Cambodge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Officiellement, aucun mort n'est encore signalé pour cette année.  
 </t>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Cambodge</t>
+          <t>Pandémie_de_Covid-19_au_Cambodge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Vaccination</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sinopharm et le CoronaVac (tous deux fabriqués en Chine) et l'AstraZénécasont sont utilisés.
 Dans un premier temps, la campagne de vaccination est focalisée sur les zones rouges, ainsi que les secteurs prioritaires comme les forces armées, les travailleurs médicaux, les enseignants, les personnes travaillant dans l'industrie du textile (représentant un secteur clef pour l'économie du pays). Puis rapidement des centres de vaccination sont ouverts dans le pays.
